--- a/SRU/Карта регистров.xlsx
+++ b/SRU/Карта регистров.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48304E73-52C0-48AF-A73D-A2619EA36670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39247A3-231F-4809-B771-FB2F05612B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -181,8 +181,87 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
-Задать уставку по диаметру
+set Fmin
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{56E51A95-EC49-4DC2-9788-CD7846484C90}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+set Fmax
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{BDCE5ECD-CBA1-49E0-8CFA-5C490167ABBB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+set Fnom</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{3220D47B-826D-4078-8279-4D85B84F34B0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+set all predels</t>
         </r>
       </text>
     </comment>
@@ -264,7 +343,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{A8539663-71F2-4814-99F0-889700033ED2}">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{A8539663-71F2-4814-99F0-889700033ED2}">
       <text>
         <r>
           <rPr>
@@ -290,7 +369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{969FC374-00A6-44F5-8249-BA7D7A3E83EC}">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{969FC374-00A6-44F5-8249-BA7D7A3E83EC}">
       <text>
         <r>
           <rPr>
@@ -575,68 +654,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{8950A554-754C-42F7-A241-418A5F73F834}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Задать уставку по диаметру</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{BE7ED966-5F4A-4B07-9E21-617F5508D81E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Уставка по диаметру установленная</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{1A13B36A-373A-4BB6-A208-A59ADA5513C9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Текущий диаметр</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{B5A9E091-A648-467B-8DD3-7D78FABAE148}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:
-MAX_D</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{1C64DA93-485C-445F-AD23-D5AB30637EC0}">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{262B9F88-56FE-4ACE-A19E-ABEB2131A951}">
       <text>
         <r>
           <rPr>
@@ -658,7 +676,128 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
-MIN_D</t>
+set MIN_D</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{1AB9F573-4D03-483F-ABF5-7A6860B5AEC8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:
+set MAX_D</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{8950A554-754C-42F7-A241-418A5F73F834}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>set Dust</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{435E3F73-94DD-47FD-8120-4AA5A9CFED05}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>MIN_D</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{D331A9E6-98E3-4E43-A487-3206C028514B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>MAX_D</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{BE7ED966-5F4A-4B07-9E21-617F5508D81E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Dust</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{1A13B36A-373A-4BB6-A208-A59ADA5513C9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Текущий диаметр</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{1C64DA93-485C-445F-AD23-D5AB30637EC0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Dmin за текущий период</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{B5A9E091-A648-467B-8DD3-7D78FABAE148}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Dmax за текущий период</t>
         </r>
       </text>
     </comment>
@@ -738,7 +877,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J32" authorId="0" shapeId="0" xr:uid="{3217DA27-5579-4164-94FD-53CCA59ABF23}">
+    <comment ref="J32" authorId="0" shapeId="0" xr:uid="{170D3C0F-AACC-4B9C-B084-C2EC8109E355}">
       <text>
         <r>
           <rPr>
@@ -749,7 +888,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>set Fmax</t>
+          <t>set Fmin</t>
         </r>
       </text>
     </comment>
@@ -813,7 +952,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J33" authorId="0" shapeId="0" xr:uid="{CB38C0F8-B094-4563-AFA6-A7ACCB4D2BF3}">
+    <comment ref="J33" authorId="0" shapeId="0" xr:uid="{3E08857E-B0C7-4680-B47D-3750F6F1164B}">
       <text>
         <r>
           <rPr>
@@ -824,11 +963,11 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Fmax</t>
+          <t>Fim</t>
         </r>
       </text>
     </comment>
-    <comment ref="B34" authorId="0" shapeId="0" xr:uid="{170D3C0F-AACC-4B9C-B084-C2EC8109E355}">
+    <comment ref="B34" authorId="0" shapeId="0" xr:uid="{3217DA27-5579-4164-94FD-53CCA59ABF23}">
       <text>
         <r>
           <rPr>
@@ -839,7 +978,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>set Fmin</t>
+          <t>set Fmax</t>
         </r>
       </text>
     </comment>
@@ -925,7 +1064,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B35" authorId="0" shapeId="0" xr:uid="{3E08857E-B0C7-4680-B47D-3750F6F1164B}">
+    <comment ref="B35" authorId="0" shapeId="0" xr:uid="{CB38C0F8-B094-4563-AFA6-A7ACCB4D2BF3}">
       <text>
         <r>
           <rPr>
@@ -936,7 +1075,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Fim</t>
+          <t>Fmax</t>
         </r>
       </text>
     </comment>
@@ -1489,16 +1628,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1782,7 +1921,7 @@
   <dimension ref="A1:L1342"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1838,6 +1977,9 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
       <c r="L3" t="s">
         <v>0</v>
       </c>
@@ -1849,8 +1991,8 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -12203,7 +12345,7 @@
   <dimension ref="A1:K886"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:E35"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12306,15 +12448,19 @@
       <c r="E12" s="7"/>
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>110</v>
       </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -12335,6 +12481,10 @@
       <c r="A17" s="1">
         <v>150</v>
       </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -12448,8 +12598,8 @@
       <c r="E34" s="7"/>
       <c r="F34" s="6"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -12461,8 +12611,8 @@
       <c r="E35" s="7"/>
       <c r="F35" s="6"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -16720,30 +16870,34 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
+  <mergeCells count="27">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="F32:G32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H33:I33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16853,31 +17007,31 @@
       <c r="A12" s="3">
         <v>100</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>110</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">

--- a/SRU/Карта регистров.xlsx
+++ b/SRU/Карта регистров.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39247A3-231F-4809-B771-FB2F05612B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B9253D-46AC-42D4-8D91-C77666A6C08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -181,7 +181,7 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
-set Fmin
+set Dmin
 </t>
         </r>
       </text>
@@ -208,7 +208,7 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
-set Fmax
+set Dmax
 </t>
         </r>
       </text>
@@ -235,7 +235,7 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
-set Fnom</t>
+set Dnom</t>
         </r>
       </text>
     </comment>
@@ -343,6 +343,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{969FC374-00A6-44F5-8249-BA7D7A3E83EC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+set Fmin</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F4" authorId="0" shapeId="0" xr:uid="{A8539663-71F2-4814-99F0-889700033ED2}">
       <text>
         <r>
@@ -369,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{969FC374-00A6-44F5-8249-BA7D7A3E83EC}">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{87FB7789-84E8-4466-9752-6D46752989DE}">
       <text>
         <r>
           <rPr>
@@ -391,7 +417,7 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
-set Fmin</t>
+set Fmanual</t>
         </r>
       </text>
     </comment>
@@ -625,7 +651,33 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
-Обрыв энкодера</t>
+Связь с ПЧ</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{DA4DCE05-033E-4454-BCAC-DA32E5AAD947}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Связь с LDM</t>
         </r>
       </text>
     </comment>
@@ -801,7 +853,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{426FEF7F-DF8F-446A-915A-7462DB355944}">
+    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{A8EE2138-7464-49F4-905E-24244CF1E084}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">set Частота шнека
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{426FEF7F-DF8F-446A-915A-7462DB355944}">
       <text>
         <r>
           <rPr>
@@ -816,7 +884,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D22" authorId="0" shapeId="0" xr:uid="{00B75C0C-4CCD-4133-9278-E6F8B27308A6}">
+    <comment ref="D23" authorId="0" shapeId="0" xr:uid="{00B75C0C-4CCD-4133-9278-E6F8B27308A6}">
       <text>
         <r>
           <rPr>
@@ -1921,7 +1989,7 @@
   <dimension ref="A1:L1342"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1991,6 +2059,7 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
@@ -2012,6 +2081,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -12345,7 +12415,7 @@
   <dimension ref="A1:K886"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12510,8 +12580,6 @@
       <c r="A22" s="1">
         <v>200</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
       <c r="D22" s="6"/>
       <c r="E22" s="7"/>
     </row>
@@ -12519,6 +12587,10 @@
       <c r="A23" s="1">
         <v>210</v>
       </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -16870,13 +16942,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="28">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
@@ -16884,19 +16959,17 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="F32:G32"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="J32:K32"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="F35:G35"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B32:C32"/>
     <mergeCell ref="H33:I33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SRU/Карта регистров.xlsx
+++ b/SRU/Карта регистров.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B9253D-46AC-42D4-8D91-C77666A6C08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB19DCC2-9E33-4355-B722-A90B00DA0A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LB" sheetId="4" r:id="rId1"/>
@@ -421,6 +421,58 @@
         </r>
       </text>
     </comment>
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{57CAA456-90EB-46A2-B2B8-CD6C729B2F09}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Зона нечувствительности</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{2EE52970-AA30-4563-B859-312357E4613B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+set allRegulator</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B5" authorId="0" shapeId="0" xr:uid="{BAE4A020-8DEA-4CE7-8BD8-A7C8A7D516D7}">
       <text>
         <r>
@@ -522,6 +574,32 @@
           </rPr>
           <t xml:space="preserve">
 set Ni</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{ED9251EF-8BF7-4167-8054-B56230F9DA82}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+set allEncoder</t>
         </r>
       </text>
     </comment>
@@ -678,6 +756,112 @@
           </rPr>
           <t xml:space="preserve">
 Связь с LDM</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{5998CAB5-7EB5-43EB-8384-A9B10527358B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Ошибка в LDM</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{1E8D5DCF-D549-480F-B5C6-6CE2E81268E2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+команда квитировать LDM
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J6" authorId="0" shapeId="0" xr:uid="{14BA127D-3A7E-4693-B11D-5164DD52F608}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+5 сек ошибка
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{5C373ED9-CF23-4291-9A68-FAADFEC9CE2A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Одная из 4 ошибок для отключения элементов управления</t>
         </r>
       </text>
     </comment>
@@ -1132,6 +1316,21 @@
         </r>
       </text>
     </comment>
+    <comment ref="J34" authorId="0" shapeId="0" xr:uid="{3A8198CE-C4EA-4A2C-9606-6852A858CC80}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>set зона нечувств</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B35" authorId="0" shapeId="0" xr:uid="{CB38C0F8-B094-4563-AFA6-A7ACCB4D2BF3}">
       <text>
         <r>
@@ -1226,6 +1425,21 @@
           </rPr>
           <t xml:space="preserve">
 Ni</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J35" authorId="0" shapeId="0" xr:uid="{038F38E2-B8AD-4847-B9A8-F37F453F462B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>зона нечувств</t>
         </r>
       </text>
     </comment>
@@ -1988,8 +2202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1342"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2062,6 +2276,8 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
+      <c r="H4" s="4"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -2071,6 +2287,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -2082,11 +2299,15 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>50</v>
       </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -12414,8 +12635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K886"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12672,6 +12893,8 @@
       <c r="G34" s="7"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="7"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -12685,6 +12908,8 @@
       <c r="G35" s="7"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="7"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -16942,7 +17167,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="30">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:E33"/>
@@ -16971,6 +17196,8 @@
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/SRU/Карта регистров.xlsx
+++ b/SRU/Карта регистров.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB19DCC2-9E33-4355-B722-A90B00DA0A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDD177E-C4BF-4C00-8E34-B654CC6EEFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LB" sheetId="4" r:id="rId1"/>
@@ -875,7 +875,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{A01B4CB5-BD04-4029-ACDC-D0D579521654}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{D409E9D4-9E5A-49FC-83F7-035A200F1317}">
       <text>
         <r>
           <rPr>
@@ -886,7 +886,174 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>float temp</t>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM1. Нижняя граница шкалы графика по Y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{3D96B462-92F4-4191-820B-DE20DA914A73}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM1. Верхняя граница шкалы графика по Y</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{8622C4B0-B203-4492-AA06-9B895C109512}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM1. Нижняя граница сигнализации (покраснения шкалы</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{AE35D176-3903-4812-8B15-50C1D94418D6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM1. Верхняя граница сигнализации (покраснения шкалы</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{6182BD74-578E-45CF-963B-E7ACAFBB9903}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM1. Целевое (середина) шкалы</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{F17D9527-D0D0-401B-8266-51BC643E0258}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM1. Минимальное значение шкалы</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{470F7781-7C58-4889-8989-2B9B8B4D4040}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+LDM1. Максимальное значение шкалы</t>
         </r>
       </text>
     </comment>
@@ -1505,266 +1672,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM1. Нижний предел для сигнализации (Моргания) циферок)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM1. Верхний предел для сигнализации (Моргания) циферок)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM1. Номинал Диаметра</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM1. Нижняя граница шкалы графика по Y</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM1. Верхняя граница шкалы графика по Y</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM1. Нижняя граница сигнализации (покраснения шкалы</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM1. Верхняя граница сигнализации (покраснения шкалы</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM1. Целевое (середина) шкалы</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM1. Минимальное значение шкалы</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM1. Максимальное значение шкалы</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B14" authorId="0" shapeId="0" xr:uid="{7AC7B51D-350E-4DCD-8BCA-9EAF1A67D966}">
       <text>
         <r>
@@ -1917,7 +1824,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2202,8 +2109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1342"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12635,8 +12542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K886"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12681,13 +12588,25 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -17167,16 +17086,22 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D22:E22"/>
+  <mergeCells count="36">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
@@ -17189,15 +17114,15 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17210,7 +17135,7 @@
   <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B62" sqref="B62:K69"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17307,31 +17232,11 @@
       <c r="A12" s="3">
         <v>100</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>110</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -17590,18 +17495,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/SRU/Карта регистров.xlsx
+++ b/SRU/Карта регистров.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDD177E-C4BF-4C00-8E34-B654CC6EEFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33B8810-AC61-43A3-96AB-95AB464BEA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LB" sheetId="4" r:id="rId1"/>
@@ -834,7 +834,35 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
-5 сек ошибка
+Показать табличку (5 сек ошибка)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K6" authorId="0" shapeId="0" xr:uid="{7B93953A-C867-481D-8644-7A2980D96FC0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+1 - работа без LDM 
+0 - работа с LDM
 </t>
         </r>
       </text>
@@ -861,7 +889,66 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
-Одная из 4 ошибок для отключения элементов управления</t>
+При возникновении любой из 2 ситуаций:
+1. Ошибка связи с ПЧ
+2. Ошибка связи с контроллером</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{0D56022C-25BF-469A-BAE4-E6806C2861C0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+При возникновении любой из 5 ситуаций:
+1. Ошибка связи с LDM
+2. Ошибка LDM
+3. Режим noLDM
+4. Ошибка связи с ПЧ
+5. Ошибка связи с контроллером</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{1553030E-A397-4F68-BFEA-CDDCEF59EDF0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Redwill1:
+При возникновении любой из 3 ситуаций:
+1. Ошибка связи с LDM
+2. Ошибка LDM
+3. Режим noLDM</t>
         </r>
       </text>
     </comment>
@@ -875,6 +962,74 @@
     <author>Автор</author>
   </authors>
   <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{D4371B46-00AE-4B86-9B05-ED50D18A29FF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор
+Скорость свзи с ЛДМ и ПЧ</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{43B00816-51AE-47F0-B014-9534C30F7E22}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Адрес ПЧ</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{728344E0-6B72-47EB-BBE1-A0301CDB6432}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Адрес ЛДМ</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="H2" authorId="0" shapeId="0" xr:uid="{D409E9D4-9E5A-49FC-83F7-035A200F1317}">
       <text>
         <r>
@@ -1672,32 +1827,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{7AC7B51D-350E-4DCD-8BCA-9EAF1A67D966}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Автор:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-LDM1. Сетевой адрес</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -1712,7 +1841,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1734,6 +1863,19 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1818,13 +1960,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2109,8 +2251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1342"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2209,12 +2351,15 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>50</v>
       </c>
       <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -12542,8 +12687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K886"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12588,25 +12733,31 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -12652,25 +12803,25 @@
       <c r="A12" s="1">
         <v>100</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>110</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -12691,10 +12842,10 @@
       <c r="A17" s="1">
         <v>150</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -12720,17 +12871,17 @@
       <c r="A22" s="1">
         <v>200</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>210</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -12776,59 +12927,59 @@
       <c r="A32" s="1">
         <v>300</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="7"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="8"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="8"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>310</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="8"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>320</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="8"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="8"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>330</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="8"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="8"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -17086,22 +17237,19 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
+  <mergeCells count="39">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
@@ -17114,15 +17262,21 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17135,7 +17289,7 @@
   <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17242,7 +17396,6 @@
       <c r="A14" s="3">
         <v>120</v>
       </c>
-      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
